--- a/Codes/dict_compose_poisson_Cl1_proba5.xlsx
+++ b/Codes/dict_compose_poisson_Cl1_proba5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C2" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
@@ -477,13 +477,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C3" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
@@ -494,13 +494,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C4" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n">
         <v>0.001</v>
@@ -511,13 +511,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C5" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="7">
@@ -545,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C7" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D7" t="n">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="E7" t="n">
         <v>0.001</v>
@@ -562,13 +562,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C8" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="E8" t="n">
         <v>0.001</v>
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C9" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C10" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C11" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C12" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C13" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C14" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="15">
@@ -681,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C15" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E15" t="n">
         <v>0.001</v>
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C16" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D16" t="n">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="17">
@@ -715,13 +715,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C17" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D17" t="n">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="E17" t="n">
         <v>0.002</v>
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C18" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D18" t="n">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C19" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D19" t="n">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C20" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C21" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D21" t="n">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C22" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="23">
@@ -817,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C23" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D23" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="E23" t="n">
         <v>0.001</v>
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C24" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D24" t="n">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="25">
@@ -851,13 +851,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C25" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E25" t="n">
         <v>0.002</v>
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C26" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D26" t="n">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C27" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D27" t="n">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C28" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D28" t="n">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C29" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D29" t="n">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C30" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D30" t="n">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C31" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D31" t="n">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E31" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C32" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C33" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D33" t="n">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="E33" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C34" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D34" t="n">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="35">
@@ -1021,13 +1021,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C35" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D35" t="n">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
         <v>0.003</v>
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C36" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D36" t="n">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="E36" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C37" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D37" t="n">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="38">
@@ -1072,13 +1072,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C38" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D38" t="n">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="E38" t="n">
         <v>0.003</v>
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C39" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D39" t="n">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C40" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D40" t="n">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C41" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D41" t="n">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E41" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C42" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D42" t="n">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C43" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D43" t="n">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="E43" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C44" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D44" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C45" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D45" t="n">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="E45" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C46" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D46" t="n">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C47" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D47" t="n">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="E47" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C48" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D48" t="n">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C49" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D49" t="n">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C50" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D50" t="n">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="E50" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C51" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D51" t="n">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C52" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D52" t="n">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C53" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D53" t="n">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C54" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D54" t="n">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C55" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D55" t="n">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C56" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D56" t="n">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="E56" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="57">
@@ -1395,13 +1395,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C57" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D57" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="E57" t="n">
         <v>0.004</v>
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C58" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D58" t="n">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="E58" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C59" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D59" t="n">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C60" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D60" t="n">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C61" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D61" t="n">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C62" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D62" t="n">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="E62" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C63" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D63" t="n">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="E63" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C64" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D64" t="n">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C65" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D65" t="n">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="E65" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C66" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D66" t="n">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="E66" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C67" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D67" t="n">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="E67" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C68" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D68" t="n">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C69" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D69" t="n">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C70" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D70" t="n">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C71" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D71" t="n">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C72" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D72" t="n">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C73" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D73" t="n">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C74" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D74" t="n">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C75" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D75" t="n">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C76" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D76" t="n">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C77" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D77" t="n">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C78" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D78" t="n">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C79" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D79" t="n">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C80" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D80" t="n">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="E80" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C81" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D81" t="n">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C82" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D82" t="n">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C83" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D83" t="n">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C84" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D84" t="n">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="E84" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C85" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D85" t="n">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="E85" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C86" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D86" t="n">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="E86" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C87" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D87" t="n">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="E87" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C88" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D88" t="n">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="E88" t="n">
-        <v>0.008</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C89" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D89" t="n">
-        <v>174</v>
+        <v>235</v>
       </c>
       <c r="E89" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C90" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D90" t="n">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="E90" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C91" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D91" t="n">
-        <v>176</v>
+        <v>237</v>
       </c>
       <c r="E91" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C92" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D92" t="n">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="E92" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C93" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D93" t="n">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="E93" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C94" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D94" t="n">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C95" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D95" t="n">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="E95" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C96" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D96" t="n">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C97" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D97" t="n">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="E97" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C98" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D98" t="n">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="E98" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C99" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D99" t="n">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C100" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D100" t="n">
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="E100" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C101" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D101" t="n">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C102" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D102" t="n">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="E102" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C103" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D103" t="n">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E103" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C104" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D104" t="n">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="E104" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C105" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D105" t="n">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="E105" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C106" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D106" t="n">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E106" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C107" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D107" t="n">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="E107" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C108" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D108" t="n">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="E108" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C109" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D109" t="n">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="E109" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C110" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D110" t="n">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="E110" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C111" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D111" t="n">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="E111" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C112" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D112" t="n">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="E112" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C113" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D113" t="n">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="E113" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C114" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D114" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E114" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C115" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D115" t="n">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="E115" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C116" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D116" t="n">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="E116" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C117" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D117" t="n">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="E117" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C118" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D118" t="n">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="E118" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C119" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D119" t="n">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="E119" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="120">
@@ -2466,13 +2466,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C120" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D120" t="n">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="E120" t="n">
         <v>0.007</v>
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C121" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D121" t="n">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="E121" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="122">
@@ -2500,16 +2500,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C122" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D122" t="n">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="123">
@@ -2517,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C123" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D123" t="n">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="E123" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="124">
@@ -2534,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C124" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D124" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="E124" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="125">
@@ -2551,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C125" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D125" t="n">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="E125" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="126">
@@ -2568,16 +2568,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C126" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D126" t="n">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="E126" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="127">
@@ -2585,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C127" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D127" t="n">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="E127" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="128">
@@ -2602,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C128" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D128" t="n">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="E128" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="129">
@@ -2619,16 +2619,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C129" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D129" t="n">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="E129" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="130">
@@ -2636,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C130" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D130" t="n">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="E130" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="131">
@@ -2653,16 +2653,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C131" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D131" t="n">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="E131" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="132">
@@ -2670,16 +2670,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C132" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D132" t="n">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="E132" t="n">
-        <v>0.005</v>
+        <v>0.009000000000000001</v>
       </c>
     </row>
     <row r="133">
@@ -2687,16 +2687,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C133" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D133" t="n">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="E133" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="134">
@@ -2704,16 +2704,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C134" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D134" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E134" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="135">
@@ -2721,13 +2721,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C135" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D135" t="n">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="E135" t="n">
         <v>0.005</v>
@@ -2738,13 +2738,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C136" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D136" t="n">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="E136" t="n">
         <v>0.002</v>
@@ -2755,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C137" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D137" t="n">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="E137" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="138">
@@ -2772,16 +2772,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C138" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D138" t="n">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="139">
@@ -2789,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C139" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D139" t="n">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="E139" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="140">
@@ -2806,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C140" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D140" t="n">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="E140" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="141">
@@ -2823,13 +2823,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C141" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D141" t="n">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="E141" t="n">
         <v>0.006</v>
@@ -2840,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C142" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D142" t="n">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="E142" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="143">
@@ -2857,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C143" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D143" t="n">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="E143" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="144">
@@ -2874,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C144" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D144" t="n">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="E144" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="145">
@@ -2891,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C145" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D145" t="n">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="E145" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="146">
@@ -2908,16 +2908,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C146" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D146" t="n">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="E146" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="147">
@@ -2925,16 +2925,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C147" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D147" t="n">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="E147" t="n">
-        <v>0.009000000000000001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="148">
@@ -2942,16 +2942,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C148" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D148" t="n">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="E148" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="149">
@@ -2959,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C149" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D149" t="n">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="E149" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="150">
@@ -2976,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C150" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D150" t="n">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="E150" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="151">
@@ -2993,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C151" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D151" t="n">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="E151" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="152">
@@ -3010,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C152" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D152" t="n">
-        <v>238</v>
+        <v>299</v>
       </c>
       <c r="E152" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="153">
@@ -3027,13 +3027,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C153" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D153" t="n">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="E153" t="n">
         <v>0.004</v>
@@ -3044,13 +3044,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C154" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D154" t="n">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="E154" t="n">
         <v>0.007</v>
@@ -3061,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C155" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D155" t="n">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="E155" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="156">
@@ -3078,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C156" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D156" t="n">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="E156" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="157">
@@ -3095,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C157" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D157" t="n">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="E157" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="158">
@@ -3112,16 +3112,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C158" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D158" t="n">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="159">
@@ -3129,13 +3129,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C159" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D159" t="n">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="E159" t="n">
         <v>0.004</v>
@@ -3146,16 +3146,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C160" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D160" t="n">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="E160" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="161">
@@ -3163,16 +3163,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C161" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D161" t="n">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="E161" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="162">
@@ -3180,16 +3180,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C162" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D162" t="n">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="E162" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="163">
@@ -3197,16 +3197,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C163" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D163" t="n">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="E163" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="164">
@@ -3214,16 +3214,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C164" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D164" t="n">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="E164" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="165">
@@ -3231,16 +3231,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C165" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D165" t="n">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E165" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="166">
@@ -3248,16 +3248,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C166" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D166" t="n">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="E166" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="167">
@@ -3265,13 +3265,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C167" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D167" t="n">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="E167" t="n">
         <v>0.005</v>
@@ -3282,16 +3282,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C168" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D168" t="n">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E168" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="169">
@@ -3299,16 +3299,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C169" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D169" t="n">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="E169" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="170">
@@ -3316,16 +3316,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C170" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D170" t="n">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="E170" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="171">
@@ -3333,16 +3333,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C171" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D171" t="n">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="E171" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="172">
@@ -3350,16 +3350,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C172" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D172" t="n">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="E172" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="173">
@@ -3367,16 +3367,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C173" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D173" t="n">
-        <v>259</v>
+        <v>322</v>
       </c>
       <c r="E173" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="174">
@@ -3384,16 +3384,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C174" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D174" t="n">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="E174" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="175">
@@ -3401,16 +3401,16 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C175" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D175" t="n">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="E175" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="176">
@@ -3418,16 +3418,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C176" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D176" t="n">
-        <v>262</v>
+        <v>326</v>
       </c>
       <c r="E176" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="177">
@@ -3435,16 +3435,16 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C177" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D177" t="n">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="E177" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="178">
@@ -3452,16 +3452,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C178" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D178" t="n">
-        <v>264</v>
+        <v>328</v>
       </c>
       <c r="E178" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="179">
@@ -3469,16 +3469,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C179" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D179" t="n">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="E179" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="180">
@@ -3486,16 +3486,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C180" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D180" t="n">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="E180" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="181">
@@ -3503,16 +3503,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C181" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D181" t="n">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="E181" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="182">
@@ -3520,16 +3520,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C182" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D182" t="n">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="E182" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="183">
@@ -3537,16 +3537,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C183" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D183" t="n">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="E183" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="184">
@@ -3554,16 +3554,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C184" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D184" t="n">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="E184" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="185">
@@ -3571,16 +3571,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C185" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D185" t="n">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="E185" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="186">
@@ -3588,13 +3588,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C186" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D186" t="n">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="E186" t="n">
         <v>0.001</v>
@@ -3605,13 +3605,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C187" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D187" t="n">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="E187" t="n">
         <v>0.001</v>
@@ -3622,13 +3622,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C188" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D188" t="n">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="E188" t="n">
         <v>0.001</v>
@@ -3639,16 +3639,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C189" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D189" t="n">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="E189" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="190">
@@ -3656,13 +3656,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C190" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D190" t="n">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="E190" t="n">
         <v>0.002</v>
@@ -3673,16 +3673,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C191" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D191" t="n">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="E191" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="192">
@@ -3690,16 +3690,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C192" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D192" t="n">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="E192" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="193">
@@ -3707,16 +3707,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C193" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D193" t="n">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="E193" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="194">
@@ -3724,16 +3724,16 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C194" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D194" t="n">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="E194" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="195">
@@ -3741,16 +3741,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C195" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D195" t="n">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="E195" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="196">
@@ -3758,16 +3758,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C196" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D196" t="n">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="E196" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="197">
@@ -3775,16 +3775,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C197" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D197" t="n">
-        <v>286</v>
+        <v>357</v>
       </c>
       <c r="E197" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="198">
@@ -3792,16 +3792,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C198" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D198" t="n">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="E198" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="199">
@@ -3809,16 +3809,16 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C199" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D199" t="n">
-        <v>288</v>
+        <v>360</v>
       </c>
       <c r="E199" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="200">
@@ -3826,16 +3826,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C200" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D200" t="n">
-        <v>289</v>
+        <v>361</v>
       </c>
       <c r="E200" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="201">
@@ -3843,16 +3843,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C201" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D201" t="n">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="E201" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="202">
@@ -3860,16 +3860,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C202" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D202" t="n">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="E202" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="203">
@@ -3877,16 +3877,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C203" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D203" t="n">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="E203" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="204">
@@ -3894,1987 +3894,15 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>8.159722222222223</v>
+        <v>33.94444444444444</v>
       </c>
       <c r="C204" t="n">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="D204" t="n">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="E204" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D205" t="n">
-        <v>294</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D206" t="n">
-        <v>295</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D207" t="n">
-        <v>296</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D208" t="n">
-        <v>297</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D209" t="n">
-        <v>298</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D210" t="n">
-        <v>299</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D211" t="n">
-        <v>301</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D212" t="n">
-        <v>302</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D213" t="n">
-        <v>303</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D214" t="n">
-        <v>304</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D215" t="n">
-        <v>306</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D216" t="n">
-        <v>307</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D217" t="n">
-        <v>308</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D218" t="n">
-        <v>309</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D219" t="n">
-        <v>310</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D220" t="n">
-        <v>311</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D221" t="n">
-        <v>312</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D222" t="n">
-        <v>313</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D223" t="n">
-        <v>314</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D224" t="n">
-        <v>315</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D225" t="n">
-        <v>316</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D226" t="n">
-        <v>317</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D227" t="n">
-        <v>318</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D228" t="n">
-        <v>319</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.007</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D229" t="n">
-        <v>320</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D230" t="n">
-        <v>321</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D231" t="n">
-        <v>322</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D232" t="n">
-        <v>323</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D233" t="n">
-        <v>324</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D234" t="n">
-        <v>325</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D235" t="n">
-        <v>326</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D236" t="n">
-        <v>328</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D237" t="n">
-        <v>329</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D238" t="n">
-        <v>330</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D239" t="n">
-        <v>331</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D240" t="n">
-        <v>332</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D241" t="n">
-        <v>333</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D242" t="n">
-        <v>334</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D243" t="n">
-        <v>335</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D244" t="n">
-        <v>336</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D245" t="n">
-        <v>337</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D246" t="n">
-        <v>338</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D247" t="n">
-        <v>339</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D248" t="n">
-        <v>340</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D249" t="n">
-        <v>342</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D250" t="n">
-        <v>344</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D251" t="n">
-        <v>345</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D252" t="n">
-        <v>346</v>
-      </c>
-      <c r="E252" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D253" t="n">
-        <v>348</v>
-      </c>
-      <c r="E253" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D254" t="n">
-        <v>349</v>
-      </c>
-      <c r="E254" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C255" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D255" t="n">
-        <v>350</v>
-      </c>
-      <c r="E255" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D256" t="n">
-        <v>351</v>
-      </c>
-      <c r="E256" t="n">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C257" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D257" t="n">
-        <v>352</v>
-      </c>
-      <c r="E257" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D258" t="n">
-        <v>353</v>
-      </c>
-      <c r="E258" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D259" t="n">
-        <v>354</v>
-      </c>
-      <c r="E259" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D260" t="n">
-        <v>355</v>
-      </c>
-      <c r="E260" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D261" t="n">
-        <v>356</v>
-      </c>
-      <c r="E261" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D262" t="n">
-        <v>357</v>
-      </c>
-      <c r="E262" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D263" t="n">
-        <v>359</v>
-      </c>
-      <c r="E263" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D264" t="n">
-        <v>360</v>
-      </c>
-      <c r="E264" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D265" t="n">
-        <v>361</v>
-      </c>
-      <c r="E265" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D266" t="n">
-        <v>362</v>
-      </c>
-      <c r="E266" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D267" t="n">
-        <v>363</v>
-      </c>
-      <c r="E267" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D268" t="n">
-        <v>364</v>
-      </c>
-      <c r="E268" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D269" t="n">
-        <v>365</v>
-      </c>
-      <c r="E269" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D270" t="n">
-        <v>367</v>
-      </c>
-      <c r="E270" t="n">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D271" t="n">
-        <v>368</v>
-      </c>
-      <c r="E271" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C272" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D272" t="n">
-        <v>369</v>
-      </c>
-      <c r="E272" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C273" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D273" t="n">
-        <v>370</v>
-      </c>
-      <c r="E273" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C274" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D274" t="n">
-        <v>371</v>
-      </c>
-      <c r="E274" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C275" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D275" t="n">
-        <v>372</v>
-      </c>
-      <c r="E275" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C276" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D276" t="n">
-        <v>373</v>
-      </c>
-      <c r="E276" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D277" t="n">
-        <v>374</v>
-      </c>
-      <c r="E277" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C278" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D278" t="n">
-        <v>375</v>
-      </c>
-      <c r="E278" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C279" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D279" t="n">
-        <v>376</v>
-      </c>
-      <c r="E279" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C280" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D280" t="n">
-        <v>377</v>
-      </c>
-      <c r="E280" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C281" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D281" t="n">
-        <v>378</v>
-      </c>
-      <c r="E281" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C282" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D282" t="n">
-        <v>379</v>
-      </c>
-      <c r="E282" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D283" t="n">
-        <v>384</v>
-      </c>
-      <c r="E283" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D284" t="n">
-        <v>385</v>
-      </c>
-      <c r="E284" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C285" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D285" t="n">
-        <v>387</v>
-      </c>
-      <c r="E285" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C286" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D286" t="n">
-        <v>388</v>
-      </c>
-      <c r="E286" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C287" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D287" t="n">
-        <v>389</v>
-      </c>
-      <c r="E287" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C288" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D288" t="n">
-        <v>394</v>
-      </c>
-      <c r="E288" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C289" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D289" t="n">
-        <v>395</v>
-      </c>
-      <c r="E289" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C290" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D290" t="n">
-        <v>397</v>
-      </c>
-      <c r="E290" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D291" t="n">
-        <v>400</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D292" t="n">
-        <v>401</v>
-      </c>
-      <c r="E292" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D293" t="n">
-        <v>402</v>
-      </c>
-      <c r="E293" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D294" t="n">
-        <v>404</v>
-      </c>
-      <c r="E294" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C295" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D295" t="n">
-        <v>405</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C296" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D296" t="n">
-        <v>407</v>
-      </c>
-      <c r="E296" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D297" t="n">
-        <v>412</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C298" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D298" t="n">
-        <v>415</v>
-      </c>
-      <c r="E298" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C299" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D299" t="n">
-        <v>419</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C300" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D300" t="n">
-        <v>422</v>
-      </c>
-      <c r="E300" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C301" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D301" t="n">
-        <v>428</v>
-      </c>
-      <c r="E301" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C302" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D302" t="n">
-        <v>433</v>
-      </c>
-      <c r="E302" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C303" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D303" t="n">
-        <v>436</v>
-      </c>
-      <c r="E303" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C304" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D304" t="n">
-        <v>439</v>
-      </c>
-      <c r="E304" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C305" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D305" t="n">
-        <v>442</v>
-      </c>
-      <c r="E305" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C306" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D306" t="n">
-        <v>444</v>
-      </c>
-      <c r="E306" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D307" t="n">
-        <v>445</v>
-      </c>
-      <c r="E307" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D308" t="n">
-        <v>450</v>
-      </c>
-      <c r="E308" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D309" t="n">
-        <v>451</v>
-      </c>
-      <c r="E309" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C310" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D310" t="n">
-        <v>457</v>
-      </c>
-      <c r="E310" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C311" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D311" t="n">
-        <v>473</v>
-      </c>
-      <c r="E311" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C312" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D312" t="n">
-        <v>481</v>
-      </c>
-      <c r="E312" t="n">
-        <v>0.002</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C313" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D313" t="n">
-        <v>483</v>
-      </c>
-      <c r="E313" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C314" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D314" t="n">
-        <v>485</v>
-      </c>
-      <c r="E314" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C315" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D315" t="n">
-        <v>488</v>
-      </c>
-      <c r="E315" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C316" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D316" t="n">
-        <v>496</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C317" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D317" t="n">
-        <v>502</v>
-      </c>
-      <c r="E317" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C318" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D318" t="n">
-        <v>528</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C319" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D319" t="n">
-        <v>539</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>8.159722222222223</v>
-      </c>
-      <c r="C320" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="D320" t="n">
-        <v>546</v>
-      </c>
-      <c r="E320" t="n">
         <v>0.001</v>
       </c>
     </row>
